--- a/public/upload/recharge.xlsx
+++ b/public/upload/recharge.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>个人货主端</t>
-  </si>
-  <si>
-    <t>2017-07-05</t>
-  </si>
-  <si>
-    <t>支付宝</t>
   </si>
   <si>
     <t>未支付</t>
@@ -437,7 +431,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>156</v>
+        <v>1565172222</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -445,20 +439,16 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="H2">
         <v>500</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
